--- a/VTU EV Internship Offer Letters/jan_offer_released_applicants_12.xlsx
+++ b/VTU EV Internship Offer Letters/jan_offer_released_applicants_12.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\visionastraa-website\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\visionastraa-website\VTU EV Internship Offer Letters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EECB53F-C02C-48B5-AAFC-05F8FC3727B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5215E21D-F0D1-447F-9B6D-31A1838170EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="703">
   <si>
     <t>Name</t>
   </si>
@@ -1922,6 +1922,213 @@
   </si>
   <si>
     <t>7411302079</t>
+  </si>
+  <si>
+    <t>Navya N Potadar</t>
+  </si>
+  <si>
+    <t>navyapotadar@gmail.com</t>
+  </si>
+  <si>
+    <t>8073020713</t>
+  </si>
+  <si>
+    <t>Manasa.B.R</t>
+  </si>
+  <si>
+    <t>mbr14433@gmail.com</t>
+  </si>
+  <si>
+    <t>8277731872</t>
+  </si>
+  <si>
+    <t>Gouthami M</t>
+  </si>
+  <si>
+    <t>gouthamimalthesh599@gmail.com</t>
+  </si>
+  <si>
+    <t>8310840120</t>
+  </si>
+  <si>
+    <t>Bhavana Neelappanavar</t>
+  </si>
+  <si>
+    <t>bhavanann2004@gmail.com</t>
+  </si>
+  <si>
+    <t>7411521144</t>
+  </si>
+  <si>
+    <t>VEENA NAGAPPA VAKKUND</t>
+  </si>
+  <si>
+    <t>veenanvakkund@gmail.com</t>
+  </si>
+  <si>
+    <t>8088337182</t>
+  </si>
+  <si>
+    <t>Savitri Shankar Halakarni</t>
+  </si>
+  <si>
+    <t>savitrihalakarni184@gmail.com</t>
+  </si>
+  <si>
+    <t>9353863367</t>
+  </si>
+  <si>
+    <t>Mahantesh Appasab Halingali</t>
+  </si>
+  <si>
+    <t>mahanteshhalingali2004@gmail.com</t>
+  </si>
+  <si>
+    <t>9972044803</t>
+  </si>
+  <si>
+    <t>VITTAL SHIVANAGOUDA GOUDRA</t>
+  </si>
+  <si>
+    <t>vittalgoudra123@gmail.com</t>
+  </si>
+  <si>
+    <t>8867462834</t>
+  </si>
+  <si>
+    <t>YALLALING RAMACHANDRA DALAWAYI</t>
+  </si>
+  <si>
+    <t>yallalingdalawayi@gmail.com</t>
+  </si>
+  <si>
+    <t>6360772976</t>
+  </si>
+  <si>
+    <t>Vikram Shivabasappa Tigadi</t>
+  </si>
+  <si>
+    <t>vikramtigadi7@gmail.com</t>
+  </si>
+  <si>
+    <t>8217387287</t>
+  </si>
+  <si>
+    <t>Ranjan P M</t>
+  </si>
+  <si>
+    <t>ranjanmahesh03@gmail.com</t>
+  </si>
+  <si>
+    <t>9353665821</t>
+  </si>
+  <si>
+    <t>Prasad Prakash Olekar</t>
+  </si>
+  <si>
+    <t>prasadolekar8971@gmail.com</t>
+  </si>
+  <si>
+    <t>6361713177</t>
+  </si>
+  <si>
+    <t>Srujan H R</t>
+  </si>
+  <si>
+    <t>srujansiddesh34@gmail.com</t>
+  </si>
+  <si>
+    <t>9148180420</t>
+  </si>
+  <si>
+    <t>Aditya Jadhav</t>
+  </si>
+  <si>
+    <t>Adityakrishnajadhav11@gmail.com</t>
+  </si>
+  <si>
+    <t>8088790129</t>
+  </si>
+  <si>
+    <t>Sagar Salunke</t>
+  </si>
+  <si>
+    <t>sagar141salunke@gmail.com</t>
+  </si>
+  <si>
+    <t>8431331649</t>
+  </si>
+  <si>
+    <t>Lochan NK</t>
+  </si>
+  <si>
+    <t>lochannatolana@gmail.com</t>
+  </si>
+  <si>
+    <t>7676421463</t>
+  </si>
+  <si>
+    <t>Keeshalya N.S</t>
+  </si>
+  <si>
+    <t>keeshalya55@gmail.com</t>
+  </si>
+  <si>
+    <t>9113636822</t>
+  </si>
+  <si>
+    <t>Shilpa Shrikant Shettar</t>
+  </si>
+  <si>
+    <t>shilpashetter18@gmail.com</t>
+  </si>
+  <si>
+    <t>9035589628</t>
+  </si>
+  <si>
+    <t>Angadi Institute of Technology and Management, Belagavi</t>
+  </si>
+  <si>
+    <t>Robotics &amp; Automation</t>
+  </si>
+  <si>
+    <t>Kandagal shivaraj</t>
+  </si>
+  <si>
+    <t>kshivarajshivaraj3@gmail.com</t>
+  </si>
+  <si>
+    <t>8431122617</t>
+  </si>
+  <si>
+    <t>anusha</t>
+  </si>
+  <si>
+    <t>anushamulimani2004@gmail.com</t>
+  </si>
+  <si>
+    <t>8050948629</t>
+  </si>
+  <si>
+    <t>Kedar Bhogashetti</t>
+  </si>
+  <si>
+    <t>kedarbhogashetti@gmail.com</t>
+  </si>
+  <si>
+    <t>8660509671</t>
+  </si>
+  <si>
+    <t>ROHITH V</t>
+  </si>
+  <si>
+    <t>vrohith262@gmail.com</t>
+  </si>
+  <si>
+    <t>EMBEDDED SYSTEMS FOR ELECTRIC VEHICLE ( Microcontrollers , IOT , Mechatronics , ADAS )</t>
+  </si>
+  <si>
+    <t>Sapthagiri College of Engineering</t>
   </si>
 </sst>
 </file>
@@ -2284,11 +2491,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G193"/>
+  <dimension ref="A1:G225"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -6731,7 +6936,744 @@
         <v>13</v>
       </c>
     </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>634</v>
+      </c>
+      <c r="B194" t="s">
+        <v>635</v>
+      </c>
+      <c r="C194" t="s">
+        <v>636</v>
+      </c>
+      <c r="D194" t="s">
+        <v>391</v>
+      </c>
+      <c r="E194" t="s">
+        <v>80</v>
+      </c>
+      <c r="F194" t="s">
+        <v>62</v>
+      </c>
+      <c r="G194" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>637</v>
+      </c>
+      <c r="B195" t="s">
+        <v>638</v>
+      </c>
+      <c r="C195" t="s">
+        <v>639</v>
+      </c>
+      <c r="D195" t="s">
+        <v>26</v>
+      </c>
+      <c r="E195" t="s">
+        <v>61</v>
+      </c>
+      <c r="F195" t="s">
+        <v>62</v>
+      </c>
+      <c r="G195" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>640</v>
+      </c>
+      <c r="B196" t="s">
+        <v>641</v>
+      </c>
+      <c r="C196" t="s">
+        <v>642</v>
+      </c>
+      <c r="D196" t="s">
+        <v>10</v>
+      </c>
+      <c r="E196" t="s">
+        <v>80</v>
+      </c>
+      <c r="F196" t="s">
+        <v>62</v>
+      </c>
+      <c r="G196" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>18</v>
+      </c>
+      <c r="B197" t="s">
+        <v>19</v>
+      </c>
+      <c r="C197" t="s">
+        <v>20</v>
+      </c>
+      <c r="D197" t="s">
+        <v>21</v>
+      </c>
+      <c r="E197" t="s">
+        <v>22</v>
+      </c>
+      <c r="F197" t="s">
+        <v>45</v>
+      </c>
+      <c r="G197" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>7</v>
+      </c>
+      <c r="B198" t="s">
+        <v>8</v>
+      </c>
+      <c r="C198" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" t="s">
+        <v>10</v>
+      </c>
+      <c r="E198" t="s">
+        <v>11</v>
+      </c>
+      <c r="F198" t="s">
+        <v>45</v>
+      </c>
+      <c r="G198" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>23</v>
+      </c>
+      <c r="B199" t="s">
+        <v>24</v>
+      </c>
+      <c r="C199" t="s">
+        <v>25</v>
+      </c>
+      <c r="D199" t="s">
+        <v>26</v>
+      </c>
+      <c r="E199" t="s">
+        <v>27</v>
+      </c>
+      <c r="F199" t="s">
+        <v>45</v>
+      </c>
+      <c r="G199" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>643</v>
+      </c>
+      <c r="B200" t="s">
+        <v>644</v>
+      </c>
+      <c r="C200" t="s">
+        <v>645</v>
+      </c>
+      <c r="D200" t="s">
+        <v>331</v>
+      </c>
+      <c r="E200" t="s">
+        <v>80</v>
+      </c>
+      <c r="F200" t="s">
+        <v>45</v>
+      </c>
+      <c r="G200" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>646</v>
+      </c>
+      <c r="B201" t="s">
+        <v>647</v>
+      </c>
+      <c r="C201" t="s">
+        <v>648</v>
+      </c>
+      <c r="D201" t="s">
+        <v>44</v>
+      </c>
+      <c r="E201" t="s">
+        <v>80</v>
+      </c>
+      <c r="F201" t="s">
+        <v>45</v>
+      </c>
+      <c r="G201" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>649</v>
+      </c>
+      <c r="B202" t="s">
+        <v>650</v>
+      </c>
+      <c r="C202" t="s">
+        <v>651</v>
+      </c>
+      <c r="D202" t="s">
+        <v>153</v>
+      </c>
+      <c r="E202" t="s">
+        <v>80</v>
+      </c>
+      <c r="F202" t="s">
+        <v>45</v>
+      </c>
+      <c r="G202" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>652</v>
+      </c>
+      <c r="B203" t="s">
+        <v>653</v>
+      </c>
+      <c r="C203" t="s">
+        <v>654</v>
+      </c>
+      <c r="D203" t="s">
+        <v>153</v>
+      </c>
+      <c r="E203" t="s">
+        <v>80</v>
+      </c>
+      <c r="F203" t="s">
+        <v>45</v>
+      </c>
+      <c r="G203" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>655</v>
+      </c>
+      <c r="B204" t="s">
+        <v>656</v>
+      </c>
+      <c r="C204" t="s">
+        <v>657</v>
+      </c>
+      <c r="D204" t="s">
+        <v>153</v>
+      </c>
+      <c r="E204" t="s">
+        <v>80</v>
+      </c>
+      <c r="F204" t="s">
+        <v>45</v>
+      </c>
+      <c r="G204" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>658</v>
+      </c>
+      <c r="B205" t="s">
+        <v>659</v>
+      </c>
+      <c r="C205" t="s">
+        <v>660</v>
+      </c>
+      <c r="D205" t="s">
+        <v>153</v>
+      </c>
+      <c r="E205" t="s">
+        <v>80</v>
+      </c>
+      <c r="F205" t="s">
+        <v>45</v>
+      </c>
+      <c r="G205" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>661</v>
+      </c>
+      <c r="B206" t="s">
+        <v>662</v>
+      </c>
+      <c r="C206" t="s">
+        <v>663</v>
+      </c>
+      <c r="D206" t="s">
+        <v>153</v>
+      </c>
+      <c r="E206" t="s">
+        <v>80</v>
+      </c>
+      <c r="F206" t="s">
+        <v>45</v>
+      </c>
+      <c r="G206" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>664</v>
+      </c>
+      <c r="B207" t="s">
+        <v>665</v>
+      </c>
+      <c r="C207" t="s">
+        <v>666</v>
+      </c>
+      <c r="D207" t="s">
+        <v>21</v>
+      </c>
+      <c r="E207" t="s">
+        <v>80</v>
+      </c>
+      <c r="F207" t="s">
+        <v>45</v>
+      </c>
+      <c r="G207" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>667</v>
+      </c>
+      <c r="B208" t="s">
+        <v>668</v>
+      </c>
+      <c r="C208" t="s">
+        <v>669</v>
+      </c>
+      <c r="D208" t="s">
+        <v>40</v>
+      </c>
+      <c r="E208" t="s">
+        <v>80</v>
+      </c>
+      <c r="F208" t="s">
+        <v>45</v>
+      </c>
+      <c r="G208" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>670</v>
+      </c>
+      <c r="B209" t="s">
+        <v>671</v>
+      </c>
+      <c r="C209" t="s">
+        <v>672</v>
+      </c>
+      <c r="D209" t="s">
+        <v>40</v>
+      </c>
+      <c r="E209" t="s">
+        <v>80</v>
+      </c>
+      <c r="F209" t="s">
+        <v>45</v>
+      </c>
+      <c r="G209" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>673</v>
+      </c>
+      <c r="B210" t="s">
+        <v>674</v>
+      </c>
+      <c r="C210" t="s">
+        <v>675</v>
+      </c>
+      <c r="D210" t="s">
+        <v>52</v>
+      </c>
+      <c r="E210" t="s">
+        <v>80</v>
+      </c>
+      <c r="F210" t="s">
+        <v>45</v>
+      </c>
+      <c r="G210" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>351</v>
+      </c>
+      <c r="B211" t="s">
+        <v>352</v>
+      </c>
+      <c r="C211" t="s">
+        <v>353</v>
+      </c>
+      <c r="D211" t="s">
+        <v>354</v>
+      </c>
+      <c r="E211" t="s">
+        <v>80</v>
+      </c>
+      <c r="F211" t="s">
+        <v>45</v>
+      </c>
+      <c r="G211" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>676</v>
+      </c>
+      <c r="B212" t="s">
+        <v>677</v>
+      </c>
+      <c r="C212" t="s">
+        <v>678</v>
+      </c>
+      <c r="D212" t="s">
+        <v>52</v>
+      </c>
+      <c r="E212" t="s">
+        <v>80</v>
+      </c>
+      <c r="F212" t="s">
+        <v>45</v>
+      </c>
+      <c r="G212" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>23</v>
+      </c>
+      <c r="B213" t="s">
+        <v>24</v>
+      </c>
+      <c r="C213" t="s">
+        <v>25</v>
+      </c>
+      <c r="D213" t="s">
+        <v>26</v>
+      </c>
+      <c r="E213" t="s">
+        <v>27</v>
+      </c>
+      <c r="F213" t="s">
+        <v>364</v>
+      </c>
+      <c r="G213" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>679</v>
+      </c>
+      <c r="B214" t="s">
+        <v>680</v>
+      </c>
+      <c r="C214" t="s">
+        <v>681</v>
+      </c>
+      <c r="D214" t="s">
+        <v>149</v>
+      </c>
+      <c r="E214" t="s">
+        <v>80</v>
+      </c>
+      <c r="F214" t="s">
+        <v>364</v>
+      </c>
+      <c r="G214" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>682</v>
+      </c>
+      <c r="B215" t="s">
+        <v>683</v>
+      </c>
+      <c r="C215" t="s">
+        <v>684</v>
+      </c>
+      <c r="D215" t="s">
+        <v>40</v>
+      </c>
+      <c r="E215" t="s">
+        <v>80</v>
+      </c>
+      <c r="F215" t="s">
+        <v>364</v>
+      </c>
+      <c r="G215" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>685</v>
+      </c>
+      <c r="B216" t="s">
+        <v>686</v>
+      </c>
+      <c r="C216" t="s">
+        <v>687</v>
+      </c>
+      <c r="D216" t="s">
+        <v>688</v>
+      </c>
+      <c r="E216" t="s">
+        <v>689</v>
+      </c>
+      <c r="F216" t="s">
+        <v>364</v>
+      </c>
+      <c r="G216" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>160</v>
+      </c>
+      <c r="B217" t="s">
+        <v>161</v>
+      </c>
+      <c r="C217" t="s">
+        <v>162</v>
+      </c>
+      <c r="D217" t="s">
+        <v>40</v>
+      </c>
+      <c r="E217" t="s">
+        <v>80</v>
+      </c>
+      <c r="F217" t="s">
+        <v>364</v>
+      </c>
+      <c r="G217" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>592</v>
+      </c>
+      <c r="B218" t="s">
+        <v>593</v>
+      </c>
+      <c r="C218" t="s">
+        <v>594</v>
+      </c>
+      <c r="D218" t="s">
+        <v>40</v>
+      </c>
+      <c r="E218" t="s">
+        <v>80</v>
+      </c>
+      <c r="F218" t="s">
+        <v>364</v>
+      </c>
+      <c r="G218" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>690</v>
+      </c>
+      <c r="B219" t="s">
+        <v>691</v>
+      </c>
+      <c r="C219" t="s">
+        <v>692</v>
+      </c>
+      <c r="D219" t="s">
+        <v>170</v>
+      </c>
+      <c r="E219" t="s">
+        <v>80</v>
+      </c>
+      <c r="F219" t="s">
+        <v>364</v>
+      </c>
+      <c r="G219" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>446</v>
+      </c>
+      <c r="B220" t="s">
+        <v>447</v>
+      </c>
+      <c r="C220" t="s">
+        <v>448</v>
+      </c>
+      <c r="D220" t="s">
+        <v>40</v>
+      </c>
+      <c r="E220" t="s">
+        <v>449</v>
+      </c>
+      <c r="F220" t="s">
+        <v>364</v>
+      </c>
+      <c r="G220" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>693</v>
+      </c>
+      <c r="B221" t="s">
+        <v>694</v>
+      </c>
+      <c r="C221" t="s">
+        <v>695</v>
+      </c>
+      <c r="D221" t="s">
+        <v>40</v>
+      </c>
+      <c r="E221" t="s">
+        <v>27</v>
+      </c>
+      <c r="F221" t="s">
+        <v>364</v>
+      </c>
+      <c r="G221" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>471</v>
+      </c>
+      <c r="B222" t="s">
+        <v>472</v>
+      </c>
+      <c r="C222" t="s">
+        <v>473</v>
+      </c>
+      <c r="D222" t="s">
+        <v>153</v>
+      </c>
+      <c r="E222" t="s">
+        <v>61</v>
+      </c>
+      <c r="F222" t="s">
+        <v>364</v>
+      </c>
+      <c r="G222" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>696</v>
+      </c>
+      <c r="B223" t="s">
+        <v>697</v>
+      </c>
+      <c r="C223" t="s">
+        <v>698</v>
+      </c>
+      <c r="D223" t="s">
+        <v>52</v>
+      </c>
+      <c r="E223" t="s">
+        <v>11</v>
+      </c>
+      <c r="F223" t="s">
+        <v>364</v>
+      </c>
+      <c r="G223" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>474</v>
+      </c>
+      <c r="B224" t="s">
+        <v>475</v>
+      </c>
+      <c r="C224" t="s">
+        <v>476</v>
+      </c>
+      <c r="D224" t="s">
+        <v>21</v>
+      </c>
+      <c r="E224" t="s">
+        <v>80</v>
+      </c>
+      <c r="F224" t="s">
+        <v>364</v>
+      </c>
+      <c r="G224" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>699</v>
+      </c>
+      <c r="B225" t="s">
+        <v>700</v>
+      </c>
+      <c r="C225">
+        <v>7483383184</v>
+      </c>
+      <c r="D225" t="s">
+        <v>702</v>
+      </c>
+      <c r="E225" t="s">
+        <v>61</v>
+      </c>
+      <c r="F225" t="s">
+        <v>701</v>
+      </c>
+      <c r="G225" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>